--- a/biology/Botanique/Cassine_orientalis/Cassine_orientalis.xlsx
+++ b/biology/Botanique/Cassine_orientalis/Cassine_orientalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cassine orientalis est une espèce d'arbres de la famille des Celastraceae. C'est l'un des arbres communément appelés bois rouge.
 Il se rencontre sur l'archipel de Mascareignes (La Réunion, l'Île Maurice, Rodrigues). Il peut atteindre jusqu'à 20 m de hauteur. La qualité de son bois a conduit à sa surexploitation. Son fruit, en forme de petite olive, lui a valu son nom vernaculaire local de Bois d'olive.
